--- a/data/pca/factorExposure/factorExposure_2018-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.001332057856296485</v>
+        <v>-0.003111617878822979</v>
       </c>
       <c r="C2">
-        <v>-0.004581307316937596</v>
+        <v>0.03157953176375992</v>
       </c>
       <c r="D2">
-        <v>0.02100678674890248</v>
+        <v>0.0273488324165699</v>
       </c>
       <c r="E2">
-        <v>-0.04632534365088083</v>
+        <v>-0.01054351667839449</v>
       </c>
       <c r="F2">
-        <v>-0.04993909601939524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03363665620566133</v>
+      </c>
+      <c r="G2">
+        <v>0.001336350530194261</v>
+      </c>
+      <c r="H2">
+        <v>0.01769944386730684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06756293506816186</v>
+        <v>-0.05835824653181839</v>
       </c>
       <c r="C3">
-        <v>0.003451726510565886</v>
+        <v>0.09192667240595451</v>
       </c>
       <c r="D3">
-        <v>-0.03361952876102755</v>
+        <v>0.01100506020001871</v>
       </c>
       <c r="E3">
-        <v>-0.1829380922557227</v>
+        <v>-0.05706232034153719</v>
       </c>
       <c r="F3">
-        <v>-0.2205729176541187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1111284849984547</v>
+      </c>
+      <c r="G3">
+        <v>0.04573399396593061</v>
+      </c>
+      <c r="H3">
+        <v>0.05242645956003128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03353965174079946</v>
+        <v>-0.04234914473346046</v>
       </c>
       <c r="C4">
-        <v>0.01609771236234144</v>
+        <v>0.05853645780624742</v>
       </c>
       <c r="D4">
-        <v>0.03340202295625489</v>
+        <v>0.02076719013518279</v>
       </c>
       <c r="E4">
-        <v>-0.005924248125111397</v>
+        <v>0.0008726005923353509</v>
       </c>
       <c r="F4">
-        <v>-0.05691571369459911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04451002815330184</v>
+      </c>
+      <c r="G4">
+        <v>0.03527050006265735</v>
+      </c>
+      <c r="H4">
+        <v>-0.003577928444527838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.05320861671013348</v>
+        <v>-0.02527682414719429</v>
       </c>
       <c r="C6">
-        <v>0.004790086589471923</v>
+        <v>0.05683965861402877</v>
       </c>
       <c r="D6">
-        <v>0.04275675743993352</v>
+        <v>0.01478051533693905</v>
       </c>
       <c r="E6">
-        <v>-0.00677383482148633</v>
+        <v>0.002979992526360021</v>
       </c>
       <c r="F6">
-        <v>-0.04265052688797077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01784111995128512</v>
+      </c>
+      <c r="G6">
+        <v>0.01661831760487133</v>
+      </c>
+      <c r="H6">
+        <v>0.000172878650099876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02494930409748695</v>
+        <v>-0.00826208462942133</v>
       </c>
       <c r="C7">
-        <v>0.07052078828697794</v>
+        <v>0.03079188636422501</v>
       </c>
       <c r="D7">
-        <v>0.004463089251912913</v>
+        <v>0.01206230714582083</v>
       </c>
       <c r="E7">
-        <v>-0.003493399137142286</v>
+        <v>0.01764926929544102</v>
       </c>
       <c r="F7">
-        <v>-0.01382541738247725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01826481272460062</v>
+      </c>
+      <c r="G7">
+        <v>0.06737189502761493</v>
+      </c>
+      <c r="H7">
+        <v>0.03080165566362213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01421949563699045</v>
+        <v>0.005703908348074964</v>
       </c>
       <c r="C8">
-        <v>0.01039471258753692</v>
+        <v>0.004222846367249722</v>
       </c>
       <c r="D8">
-        <v>0.02271916522555784</v>
+        <v>0.001922961038629944</v>
       </c>
       <c r="E8">
-        <v>-0.005340750407309254</v>
+        <v>-0.004562302079641739</v>
       </c>
       <c r="F8">
-        <v>-0.05057969639000386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02750392160878268</v>
+      </c>
+      <c r="G8">
+        <v>0.02028658046456789</v>
+      </c>
+      <c r="H8">
+        <v>-0.005618098542094896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02544480445338924</v>
+        <v>-0.01894851596243258</v>
       </c>
       <c r="C9">
-        <v>0.01374109539259043</v>
+        <v>0.03894259860649193</v>
       </c>
       <c r="D9">
-        <v>0.0288657139537364</v>
+        <v>0.01458086182705237</v>
       </c>
       <c r="E9">
-        <v>-0.03180484165554348</v>
+        <v>0.002235437377084702</v>
       </c>
       <c r="F9">
-        <v>-0.05405973247173709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02920949832744727</v>
+      </c>
+      <c r="G9">
+        <v>0.02213672886004088</v>
+      </c>
+      <c r="H9">
+        <v>0.01715066625200767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05556660948830119</v>
+        <v>-0.1102261430638967</v>
       </c>
       <c r="C10">
-        <v>-0.008047899706785469</v>
+        <v>-0.1710782105045742</v>
       </c>
       <c r="D10">
-        <v>-0.161112424488797</v>
+        <v>-0.02049407179252931</v>
       </c>
       <c r="E10">
-        <v>-0.04883911658473287</v>
+        <v>-0.02531497940967752</v>
       </c>
       <c r="F10">
-        <v>0.007489464841028027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01079501829161477</v>
+      </c>
+      <c r="G10">
+        <v>0.02377011981894888</v>
+      </c>
+      <c r="H10">
+        <v>0.03548501198802678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02634335966707943</v>
+        <v>-0.02294817096895743</v>
       </c>
       <c r="C11">
-        <v>-0.00252439650872929</v>
+        <v>0.05099552215650335</v>
       </c>
       <c r="D11">
-        <v>0.04194264332285034</v>
+        <v>0.0003806933309004037</v>
       </c>
       <c r="E11">
-        <v>0.00396640327946237</v>
+        <v>0.008226334485348267</v>
       </c>
       <c r="F11">
-        <v>-0.02261286336736566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03641318774285608</v>
+      </c>
+      <c r="G11">
+        <v>0.001141041498575272</v>
+      </c>
+      <c r="H11">
+        <v>0.008928563943520347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03384920620980622</v>
+        <v>-0.02435357886164928</v>
       </c>
       <c r="C12">
-        <v>0.003202748688427712</v>
+        <v>0.0455898856635531</v>
       </c>
       <c r="D12">
-        <v>0.03989102302596306</v>
+        <v>0.004658873910809203</v>
       </c>
       <c r="E12">
-        <v>0.01647505359573148</v>
+        <v>0.01249780370891189</v>
       </c>
       <c r="F12">
-        <v>-0.004133646513361793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01517757853510623</v>
+      </c>
+      <c r="G12">
+        <v>0.01221308648762553</v>
+      </c>
+      <c r="H12">
+        <v>0.007178756087753031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01388805188267467</v>
+        <v>-0.006573817456777722</v>
       </c>
       <c r="C13">
-        <v>-0.001110373489116803</v>
+        <v>0.0278696578179371</v>
       </c>
       <c r="D13">
-        <v>0.01029653675748354</v>
+        <v>0.02319411116498439</v>
       </c>
       <c r="E13">
-        <v>-0.0247001832348245</v>
+        <v>-0.0153081091160168</v>
       </c>
       <c r="F13">
-        <v>-0.05446779816302932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.05079960854021709</v>
+      </c>
+      <c r="G13">
+        <v>0.01518981655178862</v>
+      </c>
+      <c r="H13">
+        <v>0.007238041854351902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01260515360547922</v>
+        <v>-0.002644725256087021</v>
       </c>
       <c r="C14">
-        <v>0.01535248957244488</v>
+        <v>0.01954522128983901</v>
       </c>
       <c r="D14">
-        <v>0.007129859032643582</v>
+        <v>0.00775029498529764</v>
       </c>
       <c r="E14">
-        <v>-0.002726570348516491</v>
+        <v>0.006772478392281287</v>
       </c>
       <c r="F14">
-        <v>-0.04526935063429757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01169546212832201</v>
+      </c>
+      <c r="G14">
+        <v>0.0314572453731016</v>
+      </c>
+      <c r="H14">
+        <v>-0.0001283871584523106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02425725546566644</v>
+        <v>-0.02067940399391132</v>
       </c>
       <c r="C16">
-        <v>0.002718847029706058</v>
+        <v>0.04067802618385892</v>
       </c>
       <c r="D16">
-        <v>0.04193675429024787</v>
+        <v>0.0001850888719340476</v>
       </c>
       <c r="E16">
-        <v>0.0001738415309119214</v>
+        <v>0.006008439611620444</v>
       </c>
       <c r="F16">
-        <v>-0.02414872752511085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02339166404953876</v>
+      </c>
+      <c r="G16">
+        <v>0.00856479583516092</v>
+      </c>
+      <c r="H16">
+        <v>0.00678440170999159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02678925494804345</v>
+        <v>-0.02023421231754832</v>
       </c>
       <c r="C19">
-        <v>0.0006319182295174833</v>
+        <v>0.04985211170796234</v>
       </c>
       <c r="D19">
-        <v>0.03074592561026182</v>
+        <v>0.01312145224042921</v>
       </c>
       <c r="E19">
-        <v>-0.01334668592289512</v>
+        <v>-0.02027168696853201</v>
       </c>
       <c r="F19">
-        <v>-0.08410195753633581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.05910855112034454</v>
+      </c>
+      <c r="G19">
+        <v>0.02886342072851671</v>
+      </c>
+      <c r="H19">
+        <v>-0.001544166023361126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0001867633979812699</v>
+        <v>-0.003599509013578621</v>
       </c>
       <c r="C20">
-        <v>0.00483955271745205</v>
+        <v>0.02658089698656032</v>
       </c>
       <c r="D20">
-        <v>0.001023164786082773</v>
+        <v>0.01195832599140238</v>
       </c>
       <c r="E20">
-        <v>-0.02174681252750377</v>
+        <v>-0.01534016390092243</v>
       </c>
       <c r="F20">
-        <v>-0.03077772317574098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02489523316175677</v>
+      </c>
+      <c r="G20">
+        <v>0.01861425628942894</v>
+      </c>
+      <c r="H20">
+        <v>0.005514855742885834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03094630879575535</v>
+        <v>-0.004629723349820356</v>
       </c>
       <c r="C21">
-        <v>0.02183912640736308</v>
+        <v>0.03009213376388928</v>
       </c>
       <c r="D21">
-        <v>0.01928951547470426</v>
+        <v>0.01498139972943311</v>
       </c>
       <c r="E21">
-        <v>-0.008603073871166133</v>
+        <v>-0.01430592482046751</v>
       </c>
       <c r="F21">
-        <v>-0.03855687498774379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.03903286978886278</v>
+      </c>
+      <c r="G21">
+        <v>0.03803549254432209</v>
+      </c>
+      <c r="H21">
+        <v>0.01634765289568152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02302488748475646</v>
+        <v>-0.0159713285884805</v>
       </c>
       <c r="C24">
-        <v>0.0006447225665091313</v>
+        <v>0.04245070585431194</v>
       </c>
       <c r="D24">
-        <v>0.03297470771358288</v>
+        <v>0.005336846997461458</v>
       </c>
       <c r="E24">
-        <v>-0.0003884226957945469</v>
+        <v>0.010608337005256</v>
       </c>
       <c r="F24">
-        <v>-0.01733375880596346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02899522727534734</v>
+      </c>
+      <c r="G24">
+        <v>0.003140408963204961</v>
+      </c>
+      <c r="H24">
+        <v>0.01437274400467936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03485164986715686</v>
+        <v>-0.03204880304429591</v>
       </c>
       <c r="C25">
-        <v>-0.0007013628685674808</v>
+        <v>0.05131668686787633</v>
       </c>
       <c r="D25">
-        <v>0.03352260037067836</v>
+        <v>0.009001879558414782</v>
       </c>
       <c r="E25">
-        <v>-0.009335057849227451</v>
+        <v>0.01658377094735071</v>
       </c>
       <c r="F25">
-        <v>-0.03258586930511224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0264310711737718</v>
+      </c>
+      <c r="G25">
+        <v>0.01273662156446343</v>
+      </c>
+      <c r="H25">
+        <v>0.005271293597850229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001428217999265283</v>
+        <v>-0.0005795591863330427</v>
       </c>
       <c r="C26">
-        <v>0.01016757133262333</v>
+        <v>0.004334060336927088</v>
       </c>
       <c r="D26">
-        <v>0.01140643468244423</v>
+        <v>0.0231731657088596</v>
       </c>
       <c r="E26">
-        <v>-0.02609210548584091</v>
+        <v>0.003162618175433829</v>
       </c>
       <c r="F26">
-        <v>-0.0269499405256478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01117357468949362</v>
+      </c>
+      <c r="G26">
+        <v>0.01892926531929745</v>
+      </c>
+      <c r="H26">
+        <v>0.00722877443476666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0005645279048666883</v>
+        <v>-0.000678739131828391</v>
       </c>
       <c r="C27">
-        <v>0.0006344370461472506</v>
+        <v>-0.0007578172929341536</v>
       </c>
       <c r="D27">
-        <v>-0.005718922742034453</v>
+        <v>-0.0006881419449323891</v>
       </c>
       <c r="E27">
-        <v>0.01271552539114723</v>
+        <v>-2.283405369676259e-05</v>
       </c>
       <c r="F27">
-        <v>-0.01609692251895171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.001717856180898383</v>
+      </c>
+      <c r="G27">
+        <v>0.004372219641762731</v>
+      </c>
+      <c r="H27">
+        <v>-0.009140598163104613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09389896363298038</v>
+        <v>-0.1464958723870064</v>
       </c>
       <c r="C28">
-        <v>-0.01333608701472184</v>
+        <v>-0.2075222529607537</v>
       </c>
       <c r="D28">
-        <v>-0.2306680231581726</v>
+        <v>-0.01278363431929348</v>
       </c>
       <c r="E28">
-        <v>-0.06194313177725145</v>
+        <v>-0.02171237703078733</v>
       </c>
       <c r="F28">
-        <v>0.01570293493624537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.005050309843828037</v>
+      </c>
+      <c r="G28">
+        <v>0.03903013821716778</v>
+      </c>
+      <c r="H28">
+        <v>0.03796442161313146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01320240667859252</v>
+        <v>-0.007676632023456553</v>
       </c>
       <c r="C29">
-        <v>0.01121479101908654</v>
+        <v>0.01707084228983942</v>
       </c>
       <c r="D29">
-        <v>0.00735401978525038</v>
+        <v>0.006637058395519422</v>
       </c>
       <c r="E29">
-        <v>-0.0004237826358299227</v>
+        <v>0.006287948848947609</v>
       </c>
       <c r="F29">
-        <v>-0.04676605354630659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.006109066769178609</v>
+      </c>
+      <c r="G29">
+        <v>0.0279158762553552</v>
+      </c>
+      <c r="H29">
+        <v>-0.006609385981997708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03619490756228964</v>
+        <v>-0.02869217414056694</v>
       </c>
       <c r="C30">
-        <v>-0.04854338740129774</v>
+        <v>0.08132743485589362</v>
       </c>
       <c r="D30">
-        <v>0.05509448096407597</v>
+        <v>0.02522583427540663</v>
       </c>
       <c r="E30">
-        <v>-0.0178451545952466</v>
+        <v>-0.00306398075028403</v>
       </c>
       <c r="F30">
-        <v>-0.09229024281368881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05217531440116312</v>
+      </c>
+      <c r="G30">
+        <v>-0.008933436790623146</v>
+      </c>
+      <c r="H30">
+        <v>-0.02254218918785321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04524129132942463</v>
+        <v>-0.03312594320025201</v>
       </c>
       <c r="C31">
-        <v>0.01067401592620809</v>
+        <v>0.02008018870354724</v>
       </c>
       <c r="D31">
-        <v>0.01683876523901497</v>
+        <v>0.001779374989896864</v>
       </c>
       <c r="E31">
-        <v>0.00871363057175872</v>
+        <v>0.009115510141938517</v>
       </c>
       <c r="F31">
-        <v>-0.02843000289886386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01422756513990819</v>
+      </c>
+      <c r="G31">
+        <v>0.02305940560273832</v>
+      </c>
+      <c r="H31">
+        <v>0.005082633748933354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003245395044790406</v>
+        <v>-0.00104875196139924</v>
       </c>
       <c r="C32">
-        <v>0.02809155276166138</v>
+        <v>0.02905734676850098</v>
       </c>
       <c r="D32">
-        <v>0.02518011848664606</v>
+        <v>-0.006017755663659192</v>
       </c>
       <c r="E32">
-        <v>0.008645728770326058</v>
+        <v>-0.002180910362212863</v>
       </c>
       <c r="F32">
-        <v>-0.05919534409337225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0972834178856871</v>
+      </c>
+      <c r="G32">
+        <v>0.03974089182989261</v>
+      </c>
+      <c r="H32">
+        <v>-0.009253190458362301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03146002809604074</v>
+        <v>-0.01987584563512772</v>
       </c>
       <c r="C33">
-        <v>-0.01883059604746567</v>
+        <v>0.049519523094049</v>
       </c>
       <c r="D33">
-        <v>0.03553393559541886</v>
+        <v>0.01266411630181094</v>
       </c>
       <c r="E33">
-        <v>-0.02298145685320716</v>
+        <v>-0.01019405759292611</v>
       </c>
       <c r="F33">
-        <v>-0.04935733726221953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03480855048189014</v>
+      </c>
+      <c r="G33">
+        <v>0.004544220589535089</v>
+      </c>
+      <c r="H33">
+        <v>0.01918526957171493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02413021729570179</v>
+        <v>-0.03260441560855594</v>
       </c>
       <c r="C34">
-        <v>0.01016478843272547</v>
+        <v>0.05378378872846356</v>
       </c>
       <c r="D34">
-        <v>0.04153873036889945</v>
+        <v>-0.007093234452695606</v>
       </c>
       <c r="E34">
-        <v>0.001958281936503255</v>
+        <v>0.01992408232710677</v>
       </c>
       <c r="F34">
-        <v>-0.02745202300517096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0304038433208707</v>
+      </c>
+      <c r="G34">
+        <v>0.01680966662843641</v>
+      </c>
+      <c r="H34">
+        <v>0.01048438827698422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01040571020581595</v>
+        <v>-0.007872807965057545</v>
       </c>
       <c r="C36">
-        <v>0.005794545766336386</v>
+        <v>-0.0002871089254568029</v>
       </c>
       <c r="D36">
-        <v>0.001635408314531996</v>
+        <v>0.01027057804097269</v>
       </c>
       <c r="E36">
-        <v>-0.008120892621820806</v>
+        <v>0.0004211107506758144</v>
       </c>
       <c r="F36">
-        <v>-0.02291923126385932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.008397442214704082</v>
+      </c>
+      <c r="G36">
+        <v>0.01128182433822032</v>
+      </c>
+      <c r="H36">
+        <v>0.009612024768841996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01868718118209886</v>
+        <v>-0.02412566696771428</v>
       </c>
       <c r="C38">
-        <v>-0.003413992538422188</v>
+        <v>0.01770622102887756</v>
       </c>
       <c r="D38">
-        <v>0.00281947361164874</v>
+        <v>-0.009017424174925976</v>
       </c>
       <c r="E38">
-        <v>-0.03103238652972306</v>
+        <v>0.002311896987878287</v>
       </c>
       <c r="F38">
-        <v>-0.0455042774526246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0157631996963568</v>
+      </c>
+      <c r="G38">
+        <v>0.01611489158689047</v>
+      </c>
+      <c r="H38">
+        <v>0.0043311428562527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01871395796920154</v>
+        <v>-0.01468626483920375</v>
       </c>
       <c r="C39">
-        <v>0.008450189769894473</v>
+        <v>0.08316393597476768</v>
       </c>
       <c r="D39">
-        <v>0.0596750955166113</v>
+        <v>0.01077792550592171</v>
       </c>
       <c r="E39">
-        <v>-0.01693305882206788</v>
+        <v>0.003155027139049675</v>
       </c>
       <c r="F39">
-        <v>-0.05222518479048631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04977377710736487</v>
+      </c>
+      <c r="G39">
+        <v>0.004074120967613863</v>
+      </c>
+      <c r="H39">
+        <v>0.01951670876516017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02143816229869226</v>
+        <v>-0.01632523235713845</v>
       </c>
       <c r="C40">
-        <v>-0.002225540021721611</v>
+        <v>0.03031376880842133</v>
       </c>
       <c r="D40">
-        <v>0.04009724989171026</v>
+        <v>0.01135508240028033</v>
       </c>
       <c r="E40">
-        <v>-0.01661635969250164</v>
+        <v>-0.0002261449321400585</v>
       </c>
       <c r="F40">
-        <v>-0.01720250288729945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03222250963425736</v>
+      </c>
+      <c r="G40">
+        <v>0.007189800680464249</v>
+      </c>
+      <c r="H40">
+        <v>0.01631964822382094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009412383977428749</v>
+        <v>-0.01069635844189961</v>
       </c>
       <c r="C41">
-        <v>-0.001222911271359907</v>
+        <v>-0.008163501577952492</v>
       </c>
       <c r="D41">
-        <v>-0.01201046417690175</v>
+        <v>0.00267154352881185</v>
       </c>
       <c r="E41">
-        <v>-0.0110410145147877</v>
+        <v>0.005255857625188997</v>
       </c>
       <c r="F41">
-        <v>-0.001680820454469864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004979450548232358</v>
+      </c>
+      <c r="G41">
+        <v>0.004615492629197976</v>
+      </c>
+      <c r="H41">
+        <v>0.008489444748963439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2223170008738157</v>
+        <v>-0.04454500951219949</v>
       </c>
       <c r="C42">
-        <v>-0.1502152592512743</v>
+        <v>0.100250714055052</v>
       </c>
       <c r="D42">
-        <v>0.2417888162217264</v>
+        <v>0.1176785050057901</v>
       </c>
       <c r="E42">
-        <v>-0.6125893337874193</v>
+        <v>-0.1106171759860674</v>
       </c>
       <c r="F42">
-        <v>0.6516179576504562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.3499799383015015</v>
+      </c>
+      <c r="G42">
+        <v>-0.4258643622053318</v>
+      </c>
+      <c r="H42">
+        <v>0.7936105892396069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01470942160099486</v>
+        <v>-0.02135651429182514</v>
       </c>
       <c r="C43">
-        <v>-0.004751575638853632</v>
+        <v>2.456832044889268e-05</v>
       </c>
       <c r="D43">
-        <v>-0.009218332623616285</v>
+        <v>0.0024934534597789</v>
       </c>
       <c r="E43">
-        <v>-0.01498670289569212</v>
+        <v>0.002419821763243388</v>
       </c>
       <c r="F43">
-        <v>-0.009373745987328895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01256333547220297</v>
+      </c>
+      <c r="G43">
+        <v>0.003049265294614252</v>
+      </c>
+      <c r="H43">
+        <v>0.01231262860026525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.006883473722299007</v>
+        <v>-0.008857632215798073</v>
       </c>
       <c r="C44">
-        <v>0.01181522259191666</v>
+        <v>0.04765433951697914</v>
       </c>
       <c r="D44">
-        <v>0.01605593262711416</v>
+        <v>0.005815227614873867</v>
       </c>
       <c r="E44">
-        <v>-0.03680063331981678</v>
+        <v>-0.009512406560346539</v>
       </c>
       <c r="F44">
-        <v>-0.06758682433171569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03691098195210052</v>
+      </c>
+      <c r="G44">
+        <v>0.02121308456326524</v>
+      </c>
+      <c r="H44">
+        <v>0.02395797671124573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01251796385369075</v>
+        <v>0.00106594530385142</v>
       </c>
       <c r="C46">
-        <v>0.002623872806119816</v>
+        <v>0.00975589133658126</v>
       </c>
       <c r="D46">
-        <v>0.03598956109467578</v>
+        <v>0.01110749211151502</v>
       </c>
       <c r="E46">
-        <v>-0.01245434108136223</v>
+        <v>-0.0003982859994860117</v>
       </c>
       <c r="F46">
-        <v>-0.07214733028873943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007395561137353281</v>
+      </c>
+      <c r="G46">
+        <v>0.01767361785790623</v>
+      </c>
+      <c r="H46">
+        <v>-0.003183565064083098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06781637000990101</v>
+        <v>-0.05590016763871793</v>
       </c>
       <c r="C47">
-        <v>-0.005045094584985365</v>
+        <v>0.05346253757123409</v>
       </c>
       <c r="D47">
-        <v>0.01889986549098301</v>
+        <v>-0.006258414421709204</v>
       </c>
       <c r="E47">
-        <v>0.03208599281183767</v>
+        <v>0.008671078257761901</v>
       </c>
       <c r="F47">
-        <v>0.00133291233878041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04462672458009614</v>
+      </c>
+      <c r="G47">
+        <v>0.02215710279573721</v>
+      </c>
+      <c r="H47">
+        <v>-0.008299531359663798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02078490749606562</v>
+        <v>-0.009814984390163942</v>
       </c>
       <c r="C48">
-        <v>0.004457181674125205</v>
+        <v>0.003540040716928727</v>
       </c>
       <c r="D48">
-        <v>0.006264235098909021</v>
+        <v>0.0004073477032885538</v>
       </c>
       <c r="E48">
-        <v>-0.005463773543192293</v>
+        <v>0.001819106895971825</v>
       </c>
       <c r="F48">
-        <v>-0.02694153606466694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.003251084441035635</v>
+      </c>
+      <c r="G48">
+        <v>0.01565701364346806</v>
+      </c>
+      <c r="H48">
+        <v>0.004032076017064095</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07769575931240924</v>
+        <v>-0.05855445501736491</v>
       </c>
       <c r="C50">
-        <v>0.02341570957726007</v>
+        <v>0.0531276053149189</v>
       </c>
       <c r="D50">
-        <v>0.04179223686841015</v>
+        <v>-0.005006222259022779</v>
       </c>
       <c r="E50">
-        <v>0.01062935183707302</v>
+        <v>0.01002978746405113</v>
       </c>
       <c r="F50">
-        <v>-0.0257897731635537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.04226508797670163</v>
+      </c>
+      <c r="G50">
+        <v>0.04619537412978606</v>
+      </c>
+      <c r="H50">
+        <v>0.004403208992083951</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008227439880621133</v>
+        <v>-0.008160596669813872</v>
       </c>
       <c r="C51">
-        <v>0.007453008647547939</v>
+        <v>0.02214165376180621</v>
       </c>
       <c r="D51">
-        <v>-0.01545830279277685</v>
+        <v>0.008038145417979732</v>
       </c>
       <c r="E51">
-        <v>-0.04296593008942221</v>
+        <v>0.002642259530401295</v>
       </c>
       <c r="F51">
-        <v>-0.06410695635737375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.04479215232405336</v>
+      </c>
+      <c r="G51">
+        <v>0.02253447178822633</v>
+      </c>
+      <c r="H51">
+        <v>0.02522953605349974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1008931557569717</v>
+        <v>-0.0789925823711906</v>
       </c>
       <c r="C53">
-        <v>0.006159580914543615</v>
+        <v>0.07911743633930228</v>
       </c>
       <c r="D53">
-        <v>0.04933482075522021</v>
+        <v>-0.006905619041030198</v>
       </c>
       <c r="E53">
-        <v>0.0585841700631801</v>
+        <v>0.03345571050197738</v>
       </c>
       <c r="F53">
-        <v>0.006961916537839569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06292960559304391</v>
+      </c>
+      <c r="G53">
+        <v>0.02639204492606202</v>
+      </c>
+      <c r="H53">
+        <v>-0.005488564833579102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02314729625548186</v>
+        <v>-0.02323388612304707</v>
       </c>
       <c r="C54">
-        <v>0.009122205481673086</v>
+        <v>-0.002014619655532686</v>
       </c>
       <c r="D54">
-        <v>-0.001291557578783373</v>
+        <v>-0.005284460979695812</v>
       </c>
       <c r="E54">
-        <v>0.01395455224495622</v>
+        <v>-0.001749978832473043</v>
       </c>
       <c r="F54">
-        <v>-0.03452467429064837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01327523895303882</v>
+      </c>
+      <c r="G54">
+        <v>0.02328169736089166</v>
+      </c>
+      <c r="H54">
+        <v>0.0006466316002549029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07491686481882087</v>
+        <v>-0.05598994755977085</v>
       </c>
       <c r="C55">
-        <v>8.264367539119017e-05</v>
+        <v>0.06708455245337278</v>
       </c>
       <c r="D55">
-        <v>0.06571620592642924</v>
+        <v>-0.005402239146435215</v>
       </c>
       <c r="E55">
-        <v>0.0339913426101835</v>
+        <v>0.02178622957093053</v>
       </c>
       <c r="F55">
-        <v>0.009401240573176775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05509898559951169</v>
+      </c>
+      <c r="G55">
+        <v>0.01375037266839156</v>
+      </c>
+      <c r="H55">
+        <v>-0.005848571298531835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.142271814732036</v>
+        <v>-0.1210040394230809</v>
       </c>
       <c r="C56">
-        <v>-0.00234254663567629</v>
+        <v>0.1119223546825288</v>
       </c>
       <c r="D56">
-        <v>0.06696323939017547</v>
+        <v>-0.01562380686590498</v>
       </c>
       <c r="E56">
-        <v>0.08345836860707234</v>
+        <v>0.03442845035944071</v>
       </c>
       <c r="F56">
-        <v>0.03684115961179655</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1061622264852713</v>
+      </c>
+      <c r="G56">
+        <v>0.01516179076823804</v>
+      </c>
+      <c r="H56">
+        <v>-0.0287463391307396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0328059715515481</v>
+        <v>-0.01463088764522504</v>
       </c>
       <c r="C57">
-        <v>-0.008682330063527385</v>
+        <v>0.01682122281027557</v>
       </c>
       <c r="D57">
-        <v>0.01534802076669992</v>
+        <v>0.02358180702145305</v>
       </c>
       <c r="E57">
-        <v>-0.04498955908820331</v>
+        <v>-0.02982967880834868</v>
       </c>
       <c r="F57">
-        <v>-0.03206653932270045</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0314018814586688</v>
+      </c>
+      <c r="G57">
+        <v>0.01840205982818103</v>
+      </c>
+      <c r="H57">
+        <v>0.01333836701964023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1949811190882693</v>
+        <v>-0.07569026643934347</v>
       </c>
       <c r="C58">
-        <v>-0.1332294564134163</v>
+        <v>0.1399755523157846</v>
       </c>
       <c r="D58">
-        <v>0.1484654318834339</v>
+        <v>0.01576145180576071</v>
       </c>
       <c r="E58">
-        <v>-0.4170872428914516</v>
+        <v>-0.9632026064855546</v>
       </c>
       <c r="F58">
-        <v>-0.5408616293793246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.02483729211805775</v>
+      </c>
+      <c r="G58">
+        <v>0.09376215082153681</v>
+      </c>
+      <c r="H58">
+        <v>-0.1161711293851987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.09098611881224022</v>
+        <v>-0.1780770059047875</v>
       </c>
       <c r="C59">
-        <v>-0.03301688635124869</v>
+        <v>-0.1939396923887622</v>
       </c>
       <c r="D59">
-        <v>-0.1968314487972435</v>
+        <v>-0.0208029506009518</v>
       </c>
       <c r="E59">
-        <v>-0.04802183418084315</v>
+        <v>-0.01637925337998572</v>
       </c>
       <c r="F59">
-        <v>-0.03644897023640173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01640945387128278</v>
+      </c>
+      <c r="G59">
+        <v>0.01703822807500066</v>
+      </c>
+      <c r="H59">
+        <v>0.01040472879784358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1986701003015931</v>
+        <v>-0.2950710355782347</v>
       </c>
       <c r="C60">
-        <v>-0.04660064381026838</v>
+        <v>0.1203830989413538</v>
       </c>
       <c r="D60">
-        <v>-0.02415870426676751</v>
+        <v>-0.003146075761705402</v>
       </c>
       <c r="E60">
-        <v>-0.083491143134635</v>
+        <v>0.05840736160560076</v>
       </c>
       <c r="F60">
-        <v>-0.1011717597154361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3667578581976412</v>
+      </c>
+      <c r="G60">
+        <v>-0.1002597591824199</v>
+      </c>
+      <c r="H60">
+        <v>0.0416491260506155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02527186374561377</v>
+        <v>-0.01996792288383393</v>
       </c>
       <c r="C61">
-        <v>0.002327449639465408</v>
+        <v>0.06592018374625995</v>
       </c>
       <c r="D61">
-        <v>0.04850319565110495</v>
+        <v>0.003946118319953188</v>
       </c>
       <c r="E61">
-        <v>-0.01006405552522351</v>
+        <v>0.0065355475154792</v>
       </c>
       <c r="F61">
-        <v>-0.02686796129553102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03666417248352714</v>
+      </c>
+      <c r="G61">
+        <v>0.009285179533348654</v>
+      </c>
+      <c r="H61">
+        <v>0.009449610696675752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01225741764872975</v>
+        <v>-0.006862211829444249</v>
       </c>
       <c r="C63">
-        <v>0.006822681979263527</v>
+        <v>0.0273514213276068</v>
       </c>
       <c r="D63">
-        <v>0.02298127381220272</v>
+        <v>0.007431780739132758</v>
       </c>
       <c r="E63">
-        <v>-0.001260282823597321</v>
+        <v>0.01399585579648026</v>
       </c>
       <c r="F63">
-        <v>-0.01163766719685807</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.001285213155193222</v>
+      </c>
+      <c r="G63">
+        <v>0.02098235639050464</v>
+      </c>
+      <c r="H63">
+        <v>9.855438905607782e-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04260248612087112</v>
+        <v>-0.03997598655752913</v>
       </c>
       <c r="C64">
-        <v>0.001290708099675722</v>
+        <v>0.03713117309498831</v>
       </c>
       <c r="D64">
-        <v>0.02799180623181692</v>
+        <v>0.003089808261862966</v>
       </c>
       <c r="E64">
-        <v>-0.001764925237252398</v>
+        <v>0.01766698093655198</v>
       </c>
       <c r="F64">
-        <v>-0.02270065199013652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01503268484093518</v>
+      </c>
+      <c r="G64">
+        <v>0.002510225861515541</v>
+      </c>
+      <c r="H64">
+        <v>0.02565478447056984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05913585411229368</v>
+        <v>-0.06771110355451597</v>
       </c>
       <c r="C65">
-        <v>0.004939278716100499</v>
+        <v>0.08095245118518356</v>
       </c>
       <c r="D65">
-        <v>0.04468062648097168</v>
+        <v>0.01315927292068668</v>
       </c>
       <c r="E65">
-        <v>-0.00176443820084442</v>
+        <v>0.01624838918314673</v>
       </c>
       <c r="F65">
-        <v>-0.03874279390153215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03003319636363642</v>
+      </c>
+      <c r="G65">
+        <v>0.007492822754708448</v>
+      </c>
+      <c r="H65">
+        <v>-0.01205695595856329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04149757497205625</v>
+        <v>-0.03265174960143691</v>
       </c>
       <c r="C66">
-        <v>-0.009894631286841715</v>
+        <v>0.1237185608815459</v>
       </c>
       <c r="D66">
-        <v>0.07116289870429526</v>
+        <v>0.009019777921006545</v>
       </c>
       <c r="E66">
-        <v>0.02306123348004872</v>
+        <v>0.006717424703257175</v>
       </c>
       <c r="F66">
-        <v>-0.07262955460268736</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06300670390358261</v>
+      </c>
+      <c r="G66">
+        <v>0.002274179071487808</v>
+      </c>
+      <c r="H66">
+        <v>-0.008686627731651004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03242814195778296</v>
+        <v>-0.04767918541474869</v>
       </c>
       <c r="C67">
-        <v>-0.007165603165604156</v>
+        <v>0.02586308493888826</v>
       </c>
       <c r="D67">
-        <v>-0.003219387685409685</v>
+        <v>-0.007945079045622664</v>
       </c>
       <c r="E67">
-        <v>-0.01338991393817045</v>
+        <v>0.009007523969836667</v>
       </c>
       <c r="F67">
-        <v>-0.03551965771314938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01457701439404556</v>
+      </c>
+      <c r="G67">
+        <v>0.01801618480942214</v>
+      </c>
+      <c r="H67">
+        <v>-0.002931832335026226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09192040006488901</v>
+        <v>-0.1689764803220836</v>
       </c>
       <c r="C68">
-        <v>-0.03309791696896664</v>
+        <v>-0.2354417127314179</v>
       </c>
       <c r="D68">
-        <v>-0.2209815100091321</v>
+        <v>-0.002271705179897648</v>
       </c>
       <c r="E68">
-        <v>-0.04301540989057551</v>
+        <v>-0.0272157164650402</v>
       </c>
       <c r="F68">
-        <v>0.001290473973086596</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01620466993742942</v>
+      </c>
+      <c r="G68">
+        <v>0.01620898674270676</v>
+      </c>
+      <c r="H68">
+        <v>0.02343342221704489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05334862975967971</v>
+        <v>-0.05685585259064527</v>
       </c>
       <c r="C69">
-        <v>-0.003559913279371811</v>
+        <v>0.05196829757146412</v>
       </c>
       <c r="D69">
-        <v>0.02901930685483848</v>
+        <v>-0.01055766921764177</v>
       </c>
       <c r="E69">
-        <v>0.02950762255846907</v>
+        <v>0.02800890002637019</v>
       </c>
       <c r="F69">
-        <v>-0.01318261549144843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01857757483641661</v>
+      </c>
+      <c r="G69">
+        <v>0.01610798033474037</v>
+      </c>
+      <c r="H69">
+        <v>-0.00852621554398646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08622448258530331</v>
+        <v>-0.1554317015948899</v>
       </c>
       <c r="C71">
-        <v>-0.01915220577760481</v>
+        <v>-0.2029977822634386</v>
       </c>
       <c r="D71">
-        <v>-0.2195004868777179</v>
+        <v>-0.009282635178620257</v>
       </c>
       <c r="E71">
-        <v>-0.08565286052315978</v>
+        <v>-0.03989257341856102</v>
       </c>
       <c r="F71">
-        <v>0.03651369544272407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01893947983375376</v>
+      </c>
+      <c r="G71">
+        <v>0.02218276731887151</v>
+      </c>
+      <c r="H71">
+        <v>0.04777974948370543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1026786314682971</v>
+        <v>-0.07301902719933837</v>
       </c>
       <c r="C72">
-        <v>-0.006238029263698199</v>
+        <v>0.09244116030121287</v>
       </c>
       <c r="D72">
-        <v>0.1100678183113303</v>
+        <v>-0.01246375030079352</v>
       </c>
       <c r="E72">
-        <v>0.001774263697535564</v>
+        <v>0.0307750474130531</v>
       </c>
       <c r="F72">
-        <v>-0.1602403009067327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04104169374811083</v>
+      </c>
+      <c r="G72">
+        <v>0.00158822430169832</v>
+      </c>
+      <c r="H72">
+        <v>-0.02547326952253228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2393511423289776</v>
+        <v>-0.3926019651241215</v>
       </c>
       <c r="C73">
-        <v>-0.1043413821855844</v>
+        <v>0.1873778534690262</v>
       </c>
       <c r="D73">
-        <v>0.008156351835263007</v>
+        <v>0.001044638608921872</v>
       </c>
       <c r="E73">
-        <v>-0.1496770400495929</v>
+        <v>0.04035084484379646</v>
       </c>
       <c r="F73">
-        <v>-0.1035702197526625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.4760178621640999</v>
+      </c>
+      <c r="G73">
+        <v>-0.1621792270965287</v>
+      </c>
+      <c r="H73">
+        <v>0.1008424293331383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1327564332931837</v>
+        <v>-0.1026959968834582</v>
       </c>
       <c r="C74">
-        <v>-0.01034032194757152</v>
+        <v>0.1197360181596244</v>
       </c>
       <c r="D74">
-        <v>0.06824695454141316</v>
+        <v>-0.01283232995858699</v>
       </c>
       <c r="E74">
-        <v>0.07291920891068418</v>
+        <v>0.03646846397061972</v>
       </c>
       <c r="F74">
-        <v>0.02828099208709374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08285695888591718</v>
+      </c>
+      <c r="G74">
+        <v>0.02809960682580891</v>
+      </c>
+      <c r="H74">
+        <v>-0.01090117641777527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2656811522569795</v>
+        <v>-0.2286709199025409</v>
       </c>
       <c r="C75">
-        <v>-0.02874457329561117</v>
+        <v>0.1800843932450348</v>
       </c>
       <c r="D75">
-        <v>0.09613880153473932</v>
+        <v>-0.03323423056743205</v>
       </c>
       <c r="E75">
-        <v>0.1717877066279233</v>
+        <v>0.04405342824059959</v>
       </c>
       <c r="F75">
-        <v>0.01632369161838454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2168661649034563</v>
+      </c>
+      <c r="G75">
+        <v>0.02379509566973956</v>
+      </c>
+      <c r="H75">
+        <v>-0.07907764986456527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2695112476545283</v>
+        <v>-0.144659684188105</v>
       </c>
       <c r="C76">
-        <v>-0.008019205847398769</v>
+        <v>0.1475816689137636</v>
       </c>
       <c r="D76">
-        <v>0.1162539941820507</v>
+        <v>-0.02704744827472922</v>
       </c>
       <c r="E76">
-        <v>0.2247004227805047</v>
+        <v>0.06493790060129342</v>
       </c>
       <c r="F76">
-        <v>0.06399812592506525</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1839452068419954</v>
+      </c>
+      <c r="G76">
+        <v>0.04393398306768963</v>
+      </c>
+      <c r="H76">
+        <v>-0.05828343471867062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07894118434105668</v>
+        <v>-0.04596201028843656</v>
       </c>
       <c r="C77">
-        <v>-0.01018302754109216</v>
+        <v>0.07135249163200602</v>
       </c>
       <c r="D77">
-        <v>0.07313824611065986</v>
+        <v>0.01239670871559365</v>
       </c>
       <c r="E77">
-        <v>-0.1108032754651706</v>
+        <v>-0.02879919715909367</v>
       </c>
       <c r="F77">
-        <v>-0.01889516213355817</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01111245744015521</v>
+      </c>
+      <c r="G77">
+        <v>0.02042718756509017</v>
+      </c>
+      <c r="H77">
+        <v>0.03625765039213109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03308837579280571</v>
+        <v>-0.03173988608759375</v>
       </c>
       <c r="C78">
-        <v>0.004417295067942006</v>
+        <v>0.06020447242792379</v>
       </c>
       <c r="D78">
-        <v>0.0521475731146364</v>
+        <v>0.004411816726966478</v>
       </c>
       <c r="E78">
-        <v>-0.0274186552225302</v>
+        <v>-0.004908900099173124</v>
       </c>
       <c r="F78">
-        <v>-0.07105808830205367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04861168210286342</v>
+      </c>
+      <c r="G78">
+        <v>0.01322193305495587</v>
+      </c>
+      <c r="H78">
+        <v>0.005452105012055899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.231445584309282</v>
+        <v>-0.05564190724457158</v>
       </c>
       <c r="C80">
-        <v>0.9447507558900388</v>
+        <v>0.08677120129917436</v>
       </c>
       <c r="D80">
-        <v>-0.05524277166722347</v>
+        <v>0.01152338404205183</v>
       </c>
       <c r="E80">
-        <v>-0.1454739289252349</v>
+        <v>0.062831123119596</v>
       </c>
       <c r="F80">
-        <v>0.02276049098260933</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.004468564946762595</v>
+      </c>
+      <c r="G80">
+        <v>0.8471912608549327</v>
+      </c>
+      <c r="H80">
+        <v>0.4409650621703017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.206737253067007</v>
+        <v>-0.1363594611207346</v>
       </c>
       <c r="C81">
-        <v>-0.01191289155254001</v>
+        <v>0.1019587117103326</v>
       </c>
       <c r="D81">
-        <v>0.06087538097841061</v>
+        <v>-0.02001767735697386</v>
       </c>
       <c r="E81">
-        <v>0.140495710324836</v>
+        <v>0.02446385429998604</v>
       </c>
       <c r="F81">
-        <v>-0.006957781464829602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1407433867990283</v>
+      </c>
+      <c r="G81">
+        <v>0.03565288132751519</v>
+      </c>
+      <c r="H81">
+        <v>-0.04011546483935356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02224590762868205</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01517184802451722</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.001898701232422358</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01428814673360793</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01245402713227647</v>
+      </c>
+      <c r="G82">
+        <v>-0.003286705664272677</v>
+      </c>
+      <c r="H82">
+        <v>-0.005180701181418568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03182297696653367</v>
+        <v>-0.02254995082518998</v>
       </c>
       <c r="C83">
-        <v>-0.006957149553048886</v>
+        <v>0.02082188208684726</v>
       </c>
       <c r="D83">
-        <v>0.009235100794411586</v>
+        <v>0.004634681923888342</v>
       </c>
       <c r="E83">
-        <v>-0.03639033453389963</v>
+        <v>-0.01630124366454942</v>
       </c>
       <c r="F83">
-        <v>-0.03292642931507323</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03430179482421694</v>
+      </c>
+      <c r="G83">
+        <v>0.01694989298381861</v>
+      </c>
+      <c r="H83">
+        <v>0.01384368855857761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2561930978916528</v>
+        <v>-0.2195899789923441</v>
       </c>
       <c r="C85">
-        <v>-0.03742409824373958</v>
+        <v>0.1921983642197943</v>
       </c>
       <c r="D85">
-        <v>0.1193087299566216</v>
+        <v>-0.0222319604055898</v>
       </c>
       <c r="E85">
-        <v>0.1960776432922547</v>
+        <v>0.07673938841662462</v>
       </c>
       <c r="F85">
-        <v>0.03637755823334742</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2251017201889204</v>
+      </c>
+      <c r="G85">
+        <v>-0.0170922365083886</v>
+      </c>
+      <c r="H85">
+        <v>-0.1042923038358057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005321328849688508</v>
+        <v>-0.003899731671730833</v>
       </c>
       <c r="C86">
-        <v>0.008952419118318023</v>
+        <v>0.02988894850066669</v>
       </c>
       <c r="D86">
-        <v>0.04043515908034966</v>
+        <v>0.009197224837989433</v>
       </c>
       <c r="E86">
-        <v>-0.03182402590862373</v>
+        <v>-0.006097595669053812</v>
       </c>
       <c r="F86">
-        <v>-0.07123133231829977</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02766159166810232</v>
+      </c>
+      <c r="G86">
+        <v>0.03302379261884292</v>
+      </c>
+      <c r="H86">
+        <v>0.04180421972441115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02768214242528281</v>
+        <v>-0.00815977017115762</v>
       </c>
       <c r="C87">
-        <v>0.006332733779779793</v>
+        <v>0.03650665813965837</v>
       </c>
       <c r="D87">
-        <v>0.02904694783135757</v>
+        <v>0.01004090834567072</v>
       </c>
       <c r="E87">
-        <v>-0.05960133474016208</v>
+        <v>-0.04257722704233654</v>
       </c>
       <c r="F87">
-        <v>-0.09069878242508243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.05816955768159281</v>
+      </c>
+      <c r="G87">
+        <v>0.02394508150468075</v>
+      </c>
+      <c r="H87">
+        <v>0.02677712783089074</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04504804331003415</v>
+        <v>-0.06385343601463161</v>
       </c>
       <c r="C88">
-        <v>-0.007980916257892334</v>
+        <v>0.03932100564102722</v>
       </c>
       <c r="D88">
-        <v>-0.003534663010970864</v>
+        <v>0.01926318668029684</v>
       </c>
       <c r="E88">
-        <v>0.002828336753457865</v>
+        <v>0.01155502710257558</v>
       </c>
       <c r="F88">
-        <v>0.006719488401849139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02670174219553483</v>
+      </c>
+      <c r="G88">
+        <v>0.009393142883956273</v>
+      </c>
+      <c r="H88">
+        <v>-0.004011723192451707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1531510377052073</v>
+        <v>-0.2638701066410433</v>
       </c>
       <c r="C89">
-        <v>-0.06562366860422007</v>
+        <v>-0.3426340417412367</v>
       </c>
       <c r="D89">
-        <v>-0.3731726864394311</v>
+        <v>-0.01429675485994441</v>
       </c>
       <c r="E89">
-        <v>-0.01010505776916701</v>
+        <v>-0.01297425868170919</v>
       </c>
       <c r="F89">
-        <v>-0.02709271348228638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01181122392928235</v>
+      </c>
+      <c r="G89">
+        <v>0.01722626506246969</v>
+      </c>
+      <c r="H89">
+        <v>0.0001275682658666726</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09661782096079895</v>
+        <v>-0.2218891425821623</v>
       </c>
       <c r="C90">
-        <v>-0.0604184335303799</v>
+        <v>-0.3159774462610347</v>
       </c>
       <c r="D90">
-        <v>-0.3391215178927974</v>
+        <v>-0.01532222787670374</v>
       </c>
       <c r="E90">
-        <v>-0.01862207038003231</v>
+        <v>-0.02690555671369715</v>
       </c>
       <c r="F90">
-        <v>0.0323549419982873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04170718685379969</v>
+      </c>
+      <c r="G90">
+        <v>-0.0004308422422677671</v>
+      </c>
+      <c r="H90">
+        <v>0.006200040755293412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2918586187423791</v>
+        <v>-0.1920881419620623</v>
       </c>
       <c r="C91">
-        <v>-0.03754245553670499</v>
+        <v>0.1410918118135085</v>
       </c>
       <c r="D91">
-        <v>0.1355925178096168</v>
+        <v>-0.02926369134817356</v>
       </c>
       <c r="E91">
-        <v>0.2129224885917783</v>
+        <v>0.06028609023630568</v>
       </c>
       <c r="F91">
-        <v>0.1159666123502282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2210211547435336</v>
+      </c>
+      <c r="G91">
+        <v>0.02181114071779955</v>
+      </c>
+      <c r="H91">
+        <v>-0.0614346892600357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2189691612589337</v>
+        <v>-0.2399787652064281</v>
       </c>
       <c r="C92">
-        <v>-0.07006723720399366</v>
+        <v>-0.2440194771134389</v>
       </c>
       <c r="D92">
-        <v>-0.3724958892622421</v>
+        <v>-0.05708845350304184</v>
       </c>
       <c r="E92">
-        <v>0.0840035706877596</v>
+        <v>-0.03913959374782845</v>
       </c>
       <c r="F92">
-        <v>0.03279902163781031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1221023683373914</v>
+      </c>
+      <c r="G92">
+        <v>0.06632128430587511</v>
+      </c>
+      <c r="H92">
+        <v>-0.02783340285180507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1453650698457025</v>
+        <v>-0.2503841266564558</v>
       </c>
       <c r="C93">
-        <v>-0.08676972147392133</v>
+        <v>-0.3028308656245871</v>
       </c>
       <c r="D93">
-        <v>-0.3921050087796294</v>
+        <v>-0.0229934426241094</v>
       </c>
       <c r="E93">
-        <v>-0.05509754687522071</v>
+        <v>-0.03186551616930183</v>
       </c>
       <c r="F93">
-        <v>0.07081811034181637</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0190509622307918</v>
+      </c>
+      <c r="G93">
+        <v>-0.01497311180336354</v>
+      </c>
+      <c r="H93">
+        <v>0.03165439766877133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3228472671465082</v>
+        <v>-0.2524172945064274</v>
       </c>
       <c r="C94">
-        <v>-0.06834153015749521</v>
+        <v>0.1750568393735865</v>
       </c>
       <c r="D94">
-        <v>0.08974019277309089</v>
+        <v>-0.01787221866296371</v>
       </c>
       <c r="E94">
-        <v>0.2532191670976402</v>
+        <v>0.07218856519618767</v>
       </c>
       <c r="F94">
-        <v>-0.001372858628073934</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3466824483384039</v>
+      </c>
+      <c r="G94">
+        <v>-0.00470645101504169</v>
+      </c>
+      <c r="H94">
+        <v>-0.2779424140992863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05252739988734864</v>
+        <v>-0.06540362095612082</v>
       </c>
       <c r="C95">
-        <v>-0.0741514325565495</v>
+        <v>0.1202097449850739</v>
       </c>
       <c r="D95">
-        <v>0.02213237779865122</v>
+        <v>-0.009910895864334702</v>
       </c>
       <c r="E95">
-        <v>0.03593721135241939</v>
+        <v>-0.01980226865027208</v>
       </c>
       <c r="F95">
-        <v>-0.06066567474680555</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1002082987625535</v>
+      </c>
+      <c r="G95">
+        <v>-0.06652573426320503</v>
+      </c>
+      <c r="H95">
+        <v>-0.03075373291748227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1917788746538353</v>
+        <v>-0.2137528705266962</v>
       </c>
       <c r="C98">
-        <v>-0.06511598716471133</v>
+        <v>0.07457634335558011</v>
       </c>
       <c r="D98">
-        <v>-0.03735985225907609</v>
+        <v>-0.02522148297328972</v>
       </c>
       <c r="E98">
-        <v>-0.1485314675745792</v>
+        <v>-0.0180893974936312</v>
       </c>
       <c r="F98">
-        <v>-0.1020994339551935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2460706928180613</v>
+      </c>
+      <c r="G98">
+        <v>-0.08607426934814918</v>
+      </c>
+      <c r="H98">
+        <v>0.09375448788643437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005137148224410818</v>
+        <v>-0.002464729737229256</v>
       </c>
       <c r="C101">
-        <v>0.004705888262253422</v>
+        <v>0.01810822944054801</v>
       </c>
       <c r="D101">
-        <v>0.02569627681262722</v>
+        <v>0.007431495972277212</v>
       </c>
       <c r="E101">
-        <v>-0.06647998526240465</v>
+        <v>-0.03093771432421241</v>
       </c>
       <c r="F101">
-        <v>-0.1890715793415029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01547210329993379</v>
+      </c>
+      <c r="G101">
+        <v>0.03631714283574699</v>
+      </c>
+      <c r="H101">
+        <v>-0.0230767175787461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1381002936835217</v>
+        <v>-0.1107974712178902</v>
       </c>
       <c r="C102">
-        <v>-0.01528777014877114</v>
+        <v>0.08701509529277443</v>
       </c>
       <c r="D102">
-        <v>0.04942152299248691</v>
+        <v>-0.002516225466602429</v>
       </c>
       <c r="E102">
-        <v>0.09839900227334954</v>
+        <v>0.04425605690182614</v>
       </c>
       <c r="F102">
-        <v>0.05315049133029435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.08225986213767415</v>
+      </c>
+      <c r="G102">
+        <v>-2.824282468486775e-05</v>
+      </c>
+      <c r="H102">
+        <v>-0.02618277357198628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04160313983325883</v>
+        <v>-0.007876747017988609</v>
       </c>
       <c r="C103">
-        <v>0.0139826287491391</v>
+        <v>0.008326336617065408</v>
       </c>
       <c r="D103">
-        <v>0.01835022042790011</v>
+        <v>-0.0001076953663467688</v>
       </c>
       <c r="E103">
-        <v>0.01999712841294701</v>
+        <v>0.0005259376081521548</v>
       </c>
       <c r="F103">
-        <v>-0.004478596700518166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01481781066152261</v>
+      </c>
+      <c r="G103">
+        <v>0.01761600689707986</v>
+      </c>
+      <c r="H103">
+        <v>0.004777633820185342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.06448818875800844</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04316307904088021</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9838110143536328</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0359325726083569</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.009261654427281153</v>
+      </c>
+      <c r="G104">
+        <v>0.03878628007845667</v>
+      </c>
+      <c r="H104">
+        <v>-0.1144989560981381</v>
       </c>
     </row>
   </sheetData>
